--- a/biology/Médecine/CIM-10_Chapitre_09___Maladies_de_l'appareil_circulatoire/CIM-10_Chapitre_09___Maladies_de_l'appareil_circulatoire.xlsx
+++ b/biology/Médecine/CIM-10_Chapitre_09___Maladies_de_l'appareil_circulatoire/CIM-10_Chapitre_09___Maladies_de_l'appareil_circulatoire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_09_:_Maladies_de_l%27appareil_circulatoire</t>
+          <t>CIM-10_Chapitre_09_:_Maladies_de_l'appareil_circulatoire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article développe le chapitre IX de la classification internationale des maladies.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_09_:_Maladies_de_l%27appareil_circulatoire</t>
+          <t>CIM-10_Chapitre_09_:_Maladies_de_l'appareil_circulatoire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,48 @@
           <t>Liste des classes du chapitre 09</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">CIM-10 Chapitre 09 : Maladies de l'appareil circulatoire (I00-I99)
-(I00-I02) Rhumatisme articulaire aigu
-(I00) Rhumatisme articulaire aigu, sans mention d'atteinte cardiaque
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_09_:_Maladies_de_l'appareil_circulatoire</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_09_:_Maladies_de_l%27appareil_circulatoire</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(I00-I02) Rhumatisme articulaire aigu</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(I00) Rhumatisme articulaire aigu, sans mention d'atteinte cardiaque
 (I01) Rhumatisme articulaire aigu, avec atteinte cardiaque
 (I01.0) Péricardite rhumatismale aiguë
 (I01.1) Endocardite rhumatismale aiguë
@@ -524,9 +573,43 @@
 (I01.9) Cardiopathie rhumatismale aiguë, sans précision
 (I02) Chorée rhumatismale
 (I02.0) Chorée rhumatismale, avec atteinte cardiaque
-(I02.9) Chorée rhumatismale, sans atteinte cardiaque
-(I05-I09) Cardiopathies rhumatismales chroniques
-(I05) Maladies rhumatismales de la valvule mitrale
+(I02.9) Chorée rhumatismale, sans atteinte cardiaque</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_09_:_Maladies_de_l'appareil_circulatoire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_09_:_Maladies_de_l%27appareil_circulatoire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(I05-I09) Cardiopathies rhumatismales chroniques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(I05) Maladies rhumatismales de la valvule mitrale
 (I05.0) Sténose mitrale
 (I05.1) Insuffisance mitrale rhumatismale
 (I05.2) Sténose mitrale avec insuffisance ou régurgitation
@@ -556,9 +639,43 @@
 (I09.1) Endocardite rhumatismale, valvule non précisée
 (I09.2) Péricardite rhumatismale chronique : adhérence du péricarde, rhumatismale, médiastino-péricardite rhumatismale chronique, myopéricardite rhumatismale chronique
 (I09.8) Autres cardiopathies rhumatismales précisées : maladie rhumatismale de la valvule pulmonaire
-(I09.9) Cardiopathie rhumatismale, sans précision : cardite rhumatismale, insuffisance cardiaque rhumatismale.
-(I10-I15) Maladies hypertensives
-(I10) Hypertension essentielle (primitive)
+(I09.9) Cardiopathie rhumatismale, sans précision : cardite rhumatismale, insuffisance cardiaque rhumatismale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_09_:_Maladies_de_l'appareil_circulatoire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_09_:_Maladies_de_l%27appareil_circulatoire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(I10-I15) Maladies hypertensives</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(I10) Hypertension essentielle (primitive)
 (I11) Cardiopathie hypertensive
 (I11.0) Cardiopathie hypertensive, avec insuffisance cardiaque (congestive)
 (I11.9) Cardiopathie hypertensive, sans insuffisance cardiaque congestive
@@ -575,9 +692,43 @@
 (I15.1) Hypertension secondaire à d'autres atteintes rénales
 (I15.2) Hypertension secondaire à des atteintes endocriniennes
 (I15.8) Autres hypertensions secondaires
-(I15.9) Hypertension secondaire, sans précision
-(I20-I25) Cardiopathies ischémiques
-(I20) Angine de poitrine
+(I15.9) Hypertension secondaire, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_09_:_Maladies_de_l'appareil_circulatoire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_09_:_Maladies_de_l%27appareil_circulatoire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(I20-I25) Cardiopathies ischémiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(I20) Angine de poitrine
 (I20.0) Angine de poitrine instable
 (I20.1) Angine de poitrine avec spasme coronaire vérifié
 (I20.8) Autres formes d'angine de poitrine
@@ -617,9 +768,43 @@
 (I25.5) Myocardiopathie ischémique
 (I25.6) Ischémie myocardique asymptomatique
 (I25.8) Autres formes de cardiopathie ischémique chronique
-(I25.9) Cardiopathie ischémique chronique, sans précision
-(I26-I28) Affections cardiopulmonaires et maladies de la circulation pulmonaire
-(I26) Embolie pulmonaire
+(I25.9) Cardiopathie ischémique chronique, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_09_:_Maladies_de_l'appareil_circulatoire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_09_:_Maladies_de_l%27appareil_circulatoire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(I26-I28) Affections cardiopulmonaires et maladies de la circulation pulmonaire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(I26) Embolie pulmonaire
 (I26.0) Embolie pulmonaire, avec mention de cœur pulmonaire aigu
 (I26.9) Embolie pulmonaire, sans mention de cœur pulmonaire aigu
 (I27) Autres affections cardiopulmonaires
@@ -631,9 +816,43 @@
 (I28.0) Fistule artérioveineuse des vaisseaux pulmonaires
 (I28.1) Anévrisme de l'artère pulmonaire
 (I28.8) Autres maladies précisées des vaisseaux pulmonaires
-(I28.9) Maladie des vaisseaux pulmonaires, sans précision
-(I30-I52) Autres formes de cardiopathies
-(I30) Péricardite aiguë
+(I28.9) Maladie des vaisseaux pulmonaires, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_09_:_Maladies_de_l'appareil_circulatoire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_09_:_Maladies_de_l%27appareil_circulatoire</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(I30-I52) Autres formes de cardiopathies</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(I30) Péricardite aiguë
 (I30.0) Péricardite idiopathique aiguë non spécifique
 (I30.1) Péricardite infectieuse
 (I30.8) Autres formes de péricardite aiguë
@@ -768,9 +987,43 @@
 (I52) Autres cardiopathies au cours de maladies classées ailleurs
 (I52.0) Autres cardiopathies au cours de maladies bactériennes classées ailleurs
 (I52.1) Autres cardiopathies au cours d'autres maladies infectieuses et parasitaires classées ailleurs
-(I52.8) Autres cardiopathies au cours d'autres maladies classées ailleurs
-(I60-I69) Maladies cérébrovasculaires
-(I60) Hémorragie sous-arachnoïdienne
+(I52.8) Autres cardiopathies au cours d'autres maladies classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_09_:_Maladies_de_l'appareil_circulatoire</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_09_:_Maladies_de_l%27appareil_circulatoire</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(I60-I69) Maladies cérébrovasculaires</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(I60) Hémorragie sous-arachnoïdienne
 (I60.0) Hémorragie sous-arachnoïdienne de la bifurcation et du siphon carotidien
 (I60.1) Hémorragie sous-arachnoïdienne de l'artère cérébrale moyenne
 (I60.2) Hémorragie sous-arachnoïdienne de l'artère communicante antérieure
@@ -844,9 +1097,43 @@
 (I69.2) Séquelles d'autres hémorragies intracrâniennes non traumatiques
 (I69.3) Séquelles d'infarctus cérébral
 (I69.4) Séquelles d'accident vasculaire cérébral, non précisé comme étant hémorragique ou par infarctus
-(I69.8) Séquelles de maladies cérébrovasculaires, autres et non précisées
-(I70-I79) Maladies des artères, artérioles et capillaires
-(I70) Athérosclérose
+(I69.8) Séquelles de maladies cérébrovasculaires, autres et non précisées</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_09_:_Maladies_de_l'appareil_circulatoire</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_09_:_Maladies_de_l%27appareil_circulatoire</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(I70-I79) Maladies des artères, artérioles et capillaires</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(I70) Athérosclérose
 (I70.0) Athérosclérose de l'aorte
 (I70.1) Athérosclérose de l'artère rénale
 (I70.2) Athérosclérose des artères distales
@@ -907,9 +1194,43 @@
 (I79.0) Anévrisme de l'aorte au cours de maladies classées ailleurs
 (I79.1) Aortite au cours de maladies classées ailleurs
 (I79.2) Angiopathie périphérique au cours de maladies classées ailleurs
-(I79.8) Autres atteintes des artères, artérioles et capillaires au cours de maladies classées ailleurs
-(I80-I89) Maladies des veines, des vaisseaux et des ganglions lymphatiques, non classées ailleurs
-(I80) Phlébite et thrombophlébite
+(I79.8) Autres atteintes des artères, artérioles et capillaires au cours de maladies classées ailleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_09_:_Maladies_de_l'appareil_circulatoire</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_09_:_Maladies_de_l%27appareil_circulatoire</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(I80-I89) Maladies des veines, des vaisseaux et des ganglions lymphatiques, non classées ailleurs</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(I80) Phlébite et thrombophlébite
 (I80.0) Phlébite et thrombophlébite des veines superficielles des membres inférieurs
 (I80.1) Phlébite et thrombophlébite de la veine fémorale
 (I80.2) Phlébite et thrombophlébite d'autres vaisseaux profonds des membres inférieurs
@@ -969,9 +1290,43 @@
 (I89.8) Autres atteintes non infectieuses précisées des vaisseaux et des ganglions lymphatiques
 Chylocèle (non filarienne)
 Réticulose lipomélanique
-(I89.9) Atteinte non infectieuse des vaisseaux et des ganglions lymphatiques, sans précision
-(I95-I99) Troubles autres et non précisés de l'appareil circulatoire
-(I95) Hypotension
+(I89.9) Atteinte non infectieuse des vaisseaux et des ganglions lymphatiques, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_09_:_Maladies_de_l'appareil_circulatoire</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_09_:_Maladies_de_l%27appareil_circulatoire</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>(I95-I99) Troubles autres et non précisés de l'appareil circulatoire</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(I95) Hypotension
 (I95.0) Hypotension idiopathique
 (I95.1) Hypotension orthostatique
 (I95.2) Hypotension médicamenteuse
